--- a/medicine/Pharmacie/Helichrysum/Helichrysum.xlsx
+++ b/medicine/Pharmacie/Helichrysum/Helichrysum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helichrysum est un genre de sous-arbrisseaux dans la famille des Asteraceae. Ce sont les différentes espèces d'immortelles.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 septembre 2017) :
 Helichrysum abbayesii Humbert
 Helichrysum abietifolium Humbert
 Helichrysum abietinum O. Hoffm.
@@ -1079,7 +1093,7 @@
 Helichrysum zeyheri Less.
 Helichrysum zivojinii Cernjavski &amp; Soska
 Helichrysum zwartbergense Bolus
-Selon GRIN            (2 septembre 2017)[3] :
+Selon GRIN            (2 septembre 2017) :
 Helichrysum amorginum Boiss. &amp; Orph.
 Helichrysum arenarium (L.) Moench
 Helichrysum argyrosphaerum DC.
@@ -1101,11 +1115,11 @@
 Helichrysum splendidum (Thunb.) Less.
 Helichrysum stoechas (L.) Moench
 Helichrysum umbraculigerum Less.
-Selon ITIS      (2 septembre 2017)[4] :
+Selon ITIS      (2 septembre 2017) :
 Helichrysum foetidum (L.) Cass.
 Helichrysum formosissimum Sch. Bip.
 Helichrysum petiolare Hilliard &amp; B.L. Burtt
-Selon NCBI  (2 septembre 2017)[5] :
+Selon NCBI  (2 septembre 2017) :
 Helichrysum abbayesii
 Helichrysum acrophilum
 Helichrysum acutatum
@@ -1322,7 +1336,7 @@
 Helichrysum xylocladum
 Helichrysum zeyheri
 Helichrysum zwartbergense
-Selon The Plant List            (2 septembre 2017)[6] :
+Selon The Plant List            (2 septembre 2017) :
 Helichrysum abietifolium Humbert
 Helichrysum abietinum O.Hoffm.
 Helichrysum achyroclinoides Baker
@@ -1547,7 +1561,44 @@
 Helichrysum intermedium G.Simpson
 Helichrysum interzonale Compton
 Helichrysum intricatum DC.
-Hel</t>
+Helichrysum inyang</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Helichrysum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helichrysum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'immortelle symbolise les regrets éternels.
+</t>
         </is>
       </c>
     </row>
